--- a/public/unit_types.xlsx
+++ b/public/unit_types.xlsx
@@ -397,206 +397,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>color</v>
+      </c>
+      <c r="B1" t="str">
         <v>created</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>id</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>name</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>orm_unit</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>parameters</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>prefix</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>project_type</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>sdg</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>unit</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>updated</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2024-11-02 04:56:00.877Z</v>
+        <v>#cce515</v>
       </c>
       <c r="B2" t="str">
-        <v>eo8uqtjp2yxkb8s</v>
+        <v>2024-11-30 04:22:47.286Z</v>
       </c>
       <c r="C2" t="str">
-        <v>PET</v>
+        <v>skztjwc5jl1ykrm</v>
       </c>
       <c r="D2" t="str">
-        <v>12</v>
+        <v xml:space="preserve">Mangroph </v>
       </c>
       <c r="E2" t="str">
-        <v>(Good Environment --12) , (Less Waste--11) , (Awareness Target  --23)</v>
+        <v>2.73</v>
       </c>
       <c r="F2" t="str">
-        <v>others</v>
+        <v>(Salary Per Cap--12) , (Education Level above 50 gd--11)</v>
       </c>
       <c r="G2" t="str">
-        <v xml:space="preserve">Plastic Offset </v>
+        <v>tree</v>
       </c>
       <c r="H2" t="str">
-        <v>Good Health and Well Brain</v>
+        <v>Planting Trees Project</v>
       </c>
       <c r="I2" t="str">
-        <v>KG</v>
+        <v>Zero Hunger</v>
       </c>
       <c r="J2" t="str">
-        <v>2024-11-02 04:56:00.877Z</v>
+        <v>Tree</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2024-12-01 11:17:15.879Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024-11-02 04:11:36.027Z</v>
+        <v>#5139c6</v>
       </c>
       <c r="B3" t="str">
-        <v>qwm0jcnot7kurnc</v>
+        <v>2024-11-30 04:21:14.456Z</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve">Student </v>
+        <v>bane6gne59txsxd</v>
       </c>
       <c r="D3" t="str">
-        <v>233</v>
+        <v>Orange</v>
       </c>
       <c r="E3" t="str">
-        <v>(Salary Per Cap--12) , (Education Level above 50 gd--33) , (Fresh Air--34) , (Good Heath--44)</v>
+        <v>1.69</v>
       </c>
       <c r="F3" t="str">
-        <v>others</v>
+        <v>(Fresh Water --166) , (Fresh Air--67) , (Good Heath--66)</v>
       </c>
       <c r="G3" t="str">
-        <v>Planting</v>
+        <v>tree</v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve">Zero Hunger,1.0 Sustainability </v>
+        <v>Planting Trees Project</v>
       </c>
       <c r="I3" t="str">
-        <v>fgh</v>
+        <v xml:space="preserve">1.0 Sustainability </v>
       </c>
       <c r="J3" t="str">
-        <v>2024-11-02 04:11:36.027Z</v>
+        <v>Tree</v>
+      </c>
+      <c r="K3" t="str">
+        <v>2024-11-30 04:21:14.456Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024-11-02 03:59:58.017Z</v>
+        <v>#e01b24</v>
       </c>
       <c r="B4" t="str">
-        <v>7nqi572dhnfu1v1</v>
+        <v>2024-11-16 14:10:04.577Z</v>
       </c>
       <c r="C4" t="str">
-        <v xml:space="preserve">Tree </v>
+        <v>8w67gk5oq982a15</v>
       </c>
       <c r="D4" t="str">
-        <v>12</v>
+        <v xml:space="preserve">Apple </v>
       </c>
       <c r="E4" t="str">
-        <v>(Fresh Water --12) , (Fresh Air--22) , (Good Heath--33)</v>
+        <v>6</v>
       </c>
       <c r="F4" t="str">
+        <v>(Good Environment --120) , (Less Waste--230) , (Awareness Target  --230) , (Salary Per Cap--230) , (Education Level above 50 gd--203) , (Fresh Water --203) , (Fresh Air--2003) , (Good Heath--203)</v>
+      </c>
+      <c r="G4" t="str">
         <v>tree</v>
       </c>
-      <c r="G4" t="str">
-        <v xml:space="preserve">Planting Trees Test </v>
-      </c>
       <c r="H4" t="str">
-        <v xml:space="preserve">1.0 Sustainability </v>
+        <v xml:space="preserve">Planting,Planting Trees Test </v>
       </c>
       <c r="I4" t="str">
+        <v xml:space="preserve">Good Health and Well Brain,Zero Hunger,1.0 Sustainability </v>
+      </c>
+      <c r="J4" t="str">
         <v>Tree</v>
       </c>
-      <c r="J4" t="str">
-        <v>2024-11-02 04:00:31.175Z</v>
+      <c r="K4" t="str">
+        <v>2024-11-21 08:32:55.498Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024-10-31 09:22:49.910Z</v>
+        <v>#ff7800</v>
       </c>
       <c r="B5" t="str">
-        <v>w9afii6a4cyg6ga</v>
+        <v>2024-11-15 15:54:28.046Z</v>
       </c>
       <c r="C5" t="str">
-        <v>Othreers Uniut</v>
+        <v>xyctyjo8e6bx1vc</v>
       </c>
       <c r="D5" t="str">
-        <v>456</v>
+        <v>Mango</v>
       </c>
       <c r="E5" t="str">
-        <v>(Fresh Water --456) , (Fresh Air--456) , (Good Heath--456) , (wer--456)</v>
+        <v>122</v>
       </c>
       <c r="F5" t="str">
-        <v>others</v>
+        <v>(Good Environment --34) , (Less Waste--434) , (Awareness Target  --5) , (Salary Per Cap--56) , (Education Level above 50 gd--567)</v>
       </c>
       <c r="G5" t="str">
-        <v>Planting Trees Test ,Planting</v>
+        <v>tree</v>
       </c>
       <c r="H5" t="str">
-        <v>1.0 Sustainability ,Test</v>
+        <v xml:space="preserve">Planting Trees Test ,Plastic Offset </v>
       </c>
       <c r="I5" t="str">
-        <v>Kwat</v>
+        <v>Good Health and Well Brain,Zero Hunger</v>
       </c>
       <c r="J5" t="str">
-        <v>2024-10-31 09:23:10.820Z</v>
+        <v>Tree</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2024-11-21 07:33:30.561Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>#63452c</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2024-11-02 04:56:00.877Z</v>
+      </c>
+      <c r="C6" t="str">
+        <v>eo8uqtjp2yxkb8s</v>
+      </c>
+      <c r="D6" t="str">
+        <v>PET</v>
+      </c>
+      <c r="E6" t="str">
+        <v>12</v>
+      </c>
+      <c r="F6" t="str">
+        <v>(Fresh Water --504) , (Fresh Air--946) , (Good Heath--395)</v>
+      </c>
+      <c r="G6" t="str">
+        <v>others</v>
+      </c>
+      <c r="H6" t="str">
+        <v xml:space="preserve">Plastic Offset </v>
+      </c>
+      <c r="I6" t="str">
+        <v xml:space="preserve">1.0 Sustainability </v>
+      </c>
+      <c r="J6" t="str">
+        <v>KG</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2024-11-21 08:33:35.645Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>#33d17a</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2024-11-02 04:11:36.027Z</v>
+      </c>
+      <c r="C7" t="str">
+        <v>qwm0jcnot7kurnc</v>
+      </c>
+      <c r="D7" t="str">
+        <v xml:space="preserve">Student </v>
+      </c>
+      <c r="E7" t="str">
+        <v>233</v>
+      </c>
+      <c r="F7" t="str">
+        <v>(Good Environment --5400) , (Less Waste--654) , (Awareness Target  --23)</v>
+      </c>
+      <c r="G7" t="str">
+        <v>others</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Planting</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Good Health and Well Brain</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Tree</v>
+      </c>
+      <c r="K7" t="str">
+        <v>2024-11-21 08:32:09.198Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>#62a0ea</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2024-11-02 03:59:58.017Z</v>
+      </c>
+      <c r="C8" t="str">
+        <v>7nqi572dhnfu1v1</v>
+      </c>
+      <c r="D8" t="str">
+        <v xml:space="preserve">Tree </v>
+      </c>
+      <c r="E8" t="str">
+        <v>12</v>
+      </c>
+      <c r="F8" t="str">
+        <v>(Fresh Water --12) , (Fresh Air--22) , (Good Heath--33)</v>
+      </c>
+      <c r="G8" t="str">
+        <v>tree</v>
+      </c>
+      <c r="H8" t="str">
+        <v xml:space="preserve">Planting Trees Test </v>
+      </c>
+      <c r="I8" t="str">
+        <v xml:space="preserve">1.0 Sustainability </v>
+      </c>
+      <c r="J8" t="str">
+        <v>Tree</v>
+      </c>
+      <c r="K8" t="str">
+        <v>2024-11-16 16:47:35.044Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>#813d9c</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2024-10-31 09:22:49.910Z</v>
+      </c>
+      <c r="C9" t="str">
+        <v>w9afii6a4cyg6ga</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Othreers Uniut</v>
+      </c>
+      <c r="E9" t="str">
+        <v>456</v>
+      </c>
+      <c r="F9" t="str">
+        <v>(Salary Per Cap--56) , (Education Level above 50 gd--75)</v>
+      </c>
+      <c r="G9" t="str">
+        <v>others</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Planting Trees Test ,Planting</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Zero Hunger</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Tree</v>
+      </c>
+      <c r="K9" t="str">
+        <v>2024-11-21 07:34:15.803Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>#2ec27e</v>
+      </c>
+      <c r="B10" t="str">
         <v>2024-10-31 09:04:08.146Z</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C10" t="str">
         <v>4lx026s8otujfuv</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D10" t="str">
         <v>Tree Unit</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E10" t="str">
         <v>23</v>
       </c>
-      <c r="E6" t="str">
-        <v>(Fresh Water --234) , (Fresh Air--234) , (Good Heath--234)</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="F10" t="str">
+        <v>(Salary Per Cap--32) , (Education Level above 50 gd--23) , (wer--5) , (sdf--6)</v>
+      </c>
+      <c r="G10" t="str">
         <v>tree</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H10" t="str">
         <v>Planting Trees Test ,Planting</v>
       </c>
-      <c r="H6" t="str">
-        <v>1.0 Sustainability ,Test</v>
-      </c>
-      <c r="I6" t="str">
+      <c r="I10" t="str">
+        <v>Zero Hunger,Test</v>
+      </c>
+      <c r="J10" t="str">
         <v>KG</v>
       </c>
-      <c r="J6" t="str">
-        <v>2024-10-31 09:22:59.836Z</v>
+      <c r="K10" t="str">
+        <v>2024-11-21 07:34:40.173Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
   </ignoredErrors>
 </worksheet>
 </file>